--- a/הכול לנגר.xlsx
+++ b/הכול לנגר.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB88FB0-9B3B-1C4B-8E2C-51B7F4E14C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63D16C6-B4A8-9C4A-A856-91E83DAD8861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>מספר מוצר</t>
   </si>
@@ -37,12 +37,6 @@
     <t>תיאור</t>
   </si>
   <si>
-    <t>שם קובץ תמונה</t>
-  </si>
-  <si>
-    <t>מכיר</t>
-  </si>
-  <si>
     <t>גודל</t>
   </si>
   <si>
@@ -71,6 +65,18 @@
   </si>
   <si>
     <t>תת קטגוריה</t>
+  </si>
+  <si>
+    <t>חומר</t>
+  </si>
+  <si>
+    <t>שם קובץ תמונה 1</t>
+  </si>
+  <si>
+    <t>שם קובץ תמונה 2</t>
+  </si>
+  <si>
+    <t>שם קובץ תמונה 3</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
       <family val="34"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +141,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -157,9 +169,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -190,6 +199,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,126 +518,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7897C9-F257-9147-BDDD-EA9B7B972769}">
-  <dimension ref="B1:AC5"/>
+  <dimension ref="B1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="17.62109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.38671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.44921875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.0859375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.38671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.62109375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="21.38671875" style="2" customWidth="1"/>
-    <col min="15" max="16" width="13.85546875" style="2"/>
-    <col min="17" max="23" width="13.85546875" style="3"/>
+    <col min="3" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.62109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.38671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.73828125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.44921875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.0859375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.38671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.62109375" style="2" customWidth="1"/>
+    <col min="16" max="17" width="21.38671875" style="2" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" style="2"/>
+    <col min="20" max="26" width="13.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="13" t="s">
+    <row r="1" spans="2:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AF2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AF3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:29" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="AC2" s="12" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="2:32" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
-    <row r="3" spans="2:29" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="AC3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="2:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I5" s="14"/>
+    <row r="5" spans="2:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/הכול לנגר.xlsx
+++ b/הכול לנגר.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63D16C6-B4A8-9C4A-A856-91E83DAD8861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A10E7D9-63A0-084D-8AFB-A9DC896F1550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="34">
   <si>
     <t>מספר מוצר</t>
   </si>
@@ -77,15 +77,45 @@
   </si>
   <si>
     <t>שם קובץ תמונה 3</t>
+  </si>
+  <si>
+    <t>מכיר</t>
+  </si>
+  <si>
+    <t>Avner</t>
+  </si>
+  <si>
+    <t>סטין</t>
+  </si>
+  <si>
+    <t>פליז</t>
+  </si>
+  <si>
+    <t>ס.מ.</t>
+  </si>
+  <si>
+    <t>ידית ווינטג למגירה</t>
+  </si>
+  <si>
+    <t>1234-Satin_a</t>
+  </si>
+  <si>
+    <t>1234-Satin_b</t>
+  </si>
+  <si>
+    <t>1234-Satin</t>
+  </si>
+  <si>
+    <t>ידית</t>
+  </si>
+  <si>
+    <t>מטבח</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -192,9 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -202,6 +229,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,18 +561,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7897C9-F257-9147-BDDD-EA9B7B972769}">
   <dimension ref="B1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="16"/>
     <col min="8" max="8" width="17.62109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="21.38671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.73828125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.44921875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.44921875" style="19" customWidth="1"/>
     <col min="13" max="13" width="10.0859375" style="2" customWidth="1"/>
     <col min="14" max="14" width="21.38671875" style="2" customWidth="1"/>
     <col min="15" max="15" width="17.62109375" style="2" customWidth="1"/>
@@ -546,17 +588,18 @@
       </c>
     </row>
     <row r="2" spans="2:32" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="17"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="15"/>
+      <c r="R2" s="14"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -570,15 +613,18 @@
       </c>
     </row>
     <row r="3" spans="2:32" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>14</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>10</v>
@@ -595,7 +641,7 @@
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -613,7 +659,7 @@
       <c r="Q3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="14"/>
+      <c r="R3" s="13"/>
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -627,17 +673,18 @@
       </c>
     </row>
     <row r="4" spans="2:32" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="17"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="15"/>
+      <c r="R4" s="14"/>
       <c r="S4" s="8"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -648,7 +695,45 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L5" s="13"/>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="G5">
+        <v>2222</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/הכול לנגר.xlsx
+++ b/הכול לנגר.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A10E7D9-63A0-084D-8AFB-A9DC896F1550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA5FB7D2-6365-D846-94DA-2865C845B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>מספר מוצר</t>
   </si>
@@ -559,180 +559,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7897C9-F257-9147-BDDD-EA9B7B972769}">
-  <dimension ref="B1:AF5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="16"/>
-    <col min="8" max="8" width="17.62109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="21.38671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.62109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.38671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.0859375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.44921875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.73828125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.38671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="34.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.38671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.73828125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.44921875" style="19" customWidth="1"/>
-    <col min="13" max="13" width="10.0859375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.38671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.62109375" style="2" customWidth="1"/>
-    <col min="16" max="17" width="21.38671875" style="2" customWidth="1"/>
-    <col min="18" max="19" width="13.85546875" style="2"/>
-    <col min="20" max="26" width="13.85546875" style="3"/>
+    <col min="10" max="10" width="17.62109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="16"/>
+    <col min="13" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.85546875" style="2"/>
+    <col min="32" max="38" width="13.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1" s="12" t="s">
+    <row r="1" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:32" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="17"/>
-      <c r="H2" s="7"/>
+    <row r="2" spans="1:44" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AF2" s="11" t="s">
+      <c r="J2" s="7"/>
+      <c r="L2" s="17"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AR2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:32" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
+    <row r="3" spans="1:44" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AF3" s="6" t="s">
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AR3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="17"/>
-      <c r="H4" s="7"/>
+    <row r="4" spans="1:44" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="J4" s="7"/>
+      <c r="L4" s="17"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
     </row>
-    <row r="5" spans="2:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+    <row r="5" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>2222</v>
+      </c>
+      <c r="L5" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="16">
-        <v>28.5</v>
-      </c>
-      <c r="G5">
-        <v>2222</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
